--- a/biology/Médecine/Tissu_lymphoïde_associé_aux_muqueuses/Tissu_lymphoïde_associé_aux_muqueuses.xlsx
+++ b/biology/Médecine/Tissu_lymphoïde_associé_aux_muqueuses/Tissu_lymphoïde_associé_aux_muqueuses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tissu_lympho%C3%AFde_associ%C3%A9_aux_muqueuses</t>
+          <t>Tissu_lymphoïde_associé_aux_muqueuses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les tissus lymphoïdes associés aux muqueuses (en anglais : mucosa-associated lymphoid tissue, MALT) forment une partie des organes lymphoïdes secondaires qui se situent, de manière diffuse, dans différents organes du corps, par exemple dans le tube digestif, les poumons, la peau, etc., toujours sous l'épithélium de la muqueuse. 
 Ces tissus lymphoïdes associé aux muqueuses sont histologiquement et fonctionnellement proches des follicules trouvés dans les nœuds lymphatiques, ils contiennent des lymphocytes B, T et T auxiliaires (ou T helper). 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tissu_lympho%C3%AFde_associ%C3%A9_aux_muqueuses</t>
+          <t>Tissu_lymphoïde_associé_aux_muqueuses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Différents types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ils sont souvent subdivisés de manière suivante :
 GALT (en anglais : gut-associated lymphoid tissue) : MALT situé dans le chorion de l'intestin grêle, composé entre autres par les plaques de Peyer.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tissu_lympho%C3%AFde_associ%C3%A9_aux_muqueuses</t>
+          <t>Tissu_lymphoïde_associé_aux_muqueuses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Rôle dans les maladies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tissus lymphoïdes associés aux muqueuses ont un rôle important dans l'activation de la réponse immunitaire, mais ils peuvent être aussi le site de lymphomes, habituellement des lymphomes non hodgkiniens. Le lymphome gastrique du MALT est étroitement lié à une infection par la bactérie Helicobacter pylori[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tissus lymphoïdes associés aux muqueuses ont un rôle important dans l'activation de la réponse immunitaire, mais ils peuvent être aussi le site de lymphomes, habituellement des lymphomes non hodgkiniens. Le lymphome gastrique du MALT est étroitement lié à une infection par la bactérie Helicobacter pylori.
 </t>
         </is>
       </c>
